--- a/テスト項目/データベース_決済.xlsx
+++ b/テスト項目/データベース_決済.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A2173C-8DCE-433D-88C9-1FAB06DFC35D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>テスト</t>
     <phoneticPr fontId="1"/>
@@ -32,16 +31,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>操作手順</t>
-    <rPh sb="0" eb="2">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テジュン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -167,10 +156,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -298,13 +283,17 @@
     <rPh sb="24" eb="26">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -640,20 +629,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="A2:B12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="58" customWidth="1"/>
-    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,188 +658,175 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3">
-        <v>43823</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D3" s="3">
+        <v>43823</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3">
-        <v>43823</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3">
+        <v>43823</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3">
-        <v>43823</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3">
+        <v>43823</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3">
-        <v>43823</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3">
+        <v>43823</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3">
-        <v>43823</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3">
+        <v>43823</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="3">
-        <v>43823</v>
-      </c>
-      <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3">
+        <v>43823</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="3">
-        <v>43823</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3">
+        <v>43823</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="3">
-        <v>43823</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3">
+        <v>43823</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="3">
-        <v>43823</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3">
+        <v>43823</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="3">
-        <v>43823</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3">
+        <v>43823</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
